--- a/Timing Diagrams/timing.xlsx
+++ b/Timing Diagrams/timing.xlsx
@@ -536,13 +536,14 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>

--- a/Timing Diagrams/timing.xlsx
+++ b/Timing Diagrams/timing.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Timing Diagrams/timing.xlsx
+++ b/Timing Diagrams/timing.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmenninger/Documents/Important/School/Caltech/Classes/EE:CS 052/EECS52/Timing Diagrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\Classes\eecs52\Timing Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
   <si>
     <t>Function</t>
   </si>
@@ -77,9 +77,6 @@
     <t>T_CLRL</t>
   </si>
   <si>
-    <t>T_LHLL</t>
-  </si>
-  <si>
     <t>T_CHLL</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>SRAM Write</t>
   </si>
   <si>
-    <t>CPU ALE</t>
-  </si>
-  <si>
     <t>t_DW</t>
   </si>
   <si>
@@ -171,12 +165,117 @@
   </si>
   <si>
     <t>Ouput Hold</t>
+  </si>
+  <si>
+    <t>Display Write</t>
+  </si>
+  <si>
+    <t>Address Setup</t>
+  </si>
+  <si>
+    <t>T_AH</t>
+  </si>
+  <si>
+    <t>T_AS</t>
+  </si>
+  <si>
+    <t>Address Hold</t>
+  </si>
+  <si>
+    <t>Data Setup</t>
+  </si>
+  <si>
+    <t>T_DSW</t>
+  </si>
+  <si>
+    <t>Enable Width</t>
+  </si>
+  <si>
+    <t>T_PW</t>
+  </si>
+  <si>
+    <t>6 * T_CLK</t>
+  </si>
+  <si>
+    <t>1.5 * T_CLK</t>
+  </si>
+  <si>
+    <t>Data Hold</t>
+  </si>
+  <si>
+    <t>T_H</t>
+  </si>
+  <si>
+    <t>tSU</t>
+  </si>
+  <si>
+    <t>t_pd2</t>
+  </si>
+  <si>
+    <t>tH</t>
+  </si>
+  <si>
+    <t>2 * T_CLK</t>
+  </si>
+  <si>
+    <t>4.5 * T_CLK</t>
+  </si>
+  <si>
+    <t>Width Low</t>
+  </si>
+  <si>
+    <t>tWL</t>
+  </si>
+  <si>
+    <t>tWH</t>
+  </si>
+  <si>
+    <t>Width High</t>
+  </si>
+  <si>
+    <t>CS Wait</t>
+  </si>
+  <si>
+    <t>tXCSS</t>
+  </si>
+  <si>
+    <t>IDE Read High</t>
+  </si>
+  <si>
+    <t>MP3 Write</t>
+  </si>
+  <si>
+    <t>IDE Write</t>
+  </si>
+  <si>
+    <t>tG</t>
+  </si>
+  <si>
+    <t>IDE Read Low</t>
+  </si>
+  <si>
+    <t>tF</t>
+  </si>
+  <si>
+    <t>2 * t_PLH</t>
+  </si>
+  <si>
+    <t>t_CLDOX</t>
+  </si>
+  <si>
+    <t>tE</t>
+  </si>
+  <si>
+    <t>2 * t_PHL</t>
+  </si>
+  <si>
+    <t>t_PZH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -265,6 +364,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,27 +635,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -562,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3"/>
@@ -587,1110 +690,1129 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4">
-        <v>68.332999999999998</v>
+        <f>15</f>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f>SUM(G4:I4)</f>
-        <v>103.333</v>
+        <f>SUM(G4:AA4)</f>
+        <v>44.665999999999997</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"="</f>
+        <v>=</v>
       </c>
       <c r="G4">
-        <v>83.332999999999998</v>
+        <f>3*83.333</f>
+        <v>249.999</v>
       </c>
       <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
+        <f>-20</f>
+        <v>-20</v>
+      </c>
+      <c r="K4">
+        <v>-55</v>
+      </c>
+      <c r="M4">
+        <v>-10</v>
+      </c>
+      <c r="O4">
+        <v>-37</v>
+      </c>
+      <c r="Q4">
+        <v>-83.332999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" t="str">
-        <f>"-"</f>
-        <v>-</v>
+        <f>"+"</f>
+        <v>+</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="O6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7">
-        <f>15</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1">
         <f>SUM(G7:AA7)</f>
-        <v>44.665999999999997</v>
-      </c>
-      <c r="F7" t="str">
-        <f>"="</f>
-        <v>=</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f>3*83.333</f>
-        <v>249.999</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <f>-20</f>
-        <v>-20</v>
-      </c>
-      <c r="K7">
-        <v>-55</v>
-      </c>
-      <c r="M7">
-        <v>-10</v>
-      </c>
-      <c r="O7">
-        <v>-37</v>
-      </c>
-      <c r="Q7">
-        <v>-83.332999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="1">
         <f>SUM(G10:AA10)</f>
-        <v>5</v>
+        <v>20.666500000000013</v>
       </c>
       <c r="G10">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I10">
+        <f>0.5*83.333-14</f>
+        <v>27.666499999999999</v>
+      </c>
+      <c r="K10">
+        <f>3</f>
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="O10">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H12" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
       <c r="L12" t="str">
-        <f>"-"</f>
-        <v>-</v>
+        <f>"+"</f>
+        <v>+</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="P12" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="1">
         <f>SUM(G13:AA13)</f>
-        <v>20.666500000000013</v>
+        <v>213.99899999999997</v>
       </c>
       <c r="G13">
-        <f>3*83.333</f>
-        <v>249.999</v>
+        <f>10</f>
+        <v>10</v>
       </c>
       <c r="I13">
         <f>0.5*83.333-14</f>
         <v>27.666499999999999</v>
       </c>
       <c r="K13">
-        <f>3</f>
         <v>3</v>
       </c>
       <c r="M13">
-        <f>-10</f>
+        <f>2.5*83.333</f>
+        <v>208.33249999999998</v>
+      </c>
+      <c r="O13">
+        <v>-25</v>
+      </c>
+      <c r="Q13">
         <v>-10</v>
       </c>
-      <c r="O13">
-        <f>-3*83.333</f>
-        <v>-249.999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H15" t="str">
-        <f>"+"</f>
-        <v>+</v>
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J15" t="str">
-        <f>"+"</f>
-        <v>+</v>
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L15" t="str">
-        <f>"+"</f>
-        <v>+</v>
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="M15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N15" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P15" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1">
         <f>SUM(G16:AA16)</f>
-        <v>213.99899999999997</v>
+        <v>54.665999999999997</v>
       </c>
       <c r="G16">
-        <f>10</f>
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I16">
+        <f>-20</f>
+        <v>-20</v>
+      </c>
+      <c r="K16">
+        <v>-45</v>
+      </c>
+      <c r="M16">
+        <v>-10</v>
+      </c>
+      <c r="O16">
+        <v>-37</v>
+      </c>
+      <c r="Q16">
+        <v>-83.332999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I16">
-        <f>0.5*83.333-14</f>
-        <v>27.666499999999999</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <f>2.5*83.333</f>
-        <v>208.33249999999998</v>
-      </c>
-      <c r="O16">
-        <v>-25</v>
-      </c>
-      <c r="Q16">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H18" t="str">
-        <f>"-"</f>
-        <v>-</v>
+        <f>"+"</f>
+        <v>+</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="O18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1">
         <f>SUM(G19:AA19)</f>
-        <v>54.665999999999997</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <f>3*83.333</f>
-        <v>249.999</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <f>-20</f>
-        <v>-20</v>
-      </c>
-      <c r="K19">
-        <v>-45</v>
-      </c>
-      <c r="M19">
-        <v>-10</v>
-      </c>
-      <c r="O19">
-        <v>-37</v>
-      </c>
-      <c r="Q19">
-        <v>-83.332999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J21" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1">
         <f>SUM(G22:AA22)</f>
-        <v>5</v>
+        <v>20.666500000000013</v>
       </c>
       <c r="G22">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I22">
+        <f>0.5*83.333-14</f>
+        <v>27.666499999999999</v>
+      </c>
+      <c r="K22">
+        <f>3</f>
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+      <c r="O22">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2"/>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H24" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
       <c r="L24" t="str">
-        <f>"-"</f>
-        <v>-</v>
+        <f>"+"</f>
+        <v>+</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N24" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="P24" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1">
         <f>SUM(G25:AA25)</f>
-        <v>20.666500000000013</v>
+        <v>213.99899999999997</v>
       </c>
       <c r="G25">
-        <f>3*83.333</f>
-        <v>249.999</v>
+        <f>10</f>
+        <v>10</v>
       </c>
       <c r="I25">
         <f>0.5*83.333-14</f>
         <v>27.666499999999999</v>
       </c>
       <c r="K25">
-        <f>3</f>
         <v>3</v>
       </c>
       <c r="M25">
-        <f>-10</f>
+        <f>2.5*83.333</f>
+        <v>208.33249999999998</v>
+      </c>
+      <c r="O25">
+        <v>-25</v>
+      </c>
+      <c r="Q25">
         <v>-10</v>
       </c>
-      <c r="O25">
-        <f>-3*83.333</f>
-        <v>-249.999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1">
         <f>SUM(G28:AA28)</f>
-        <v>213.99899999999997</v>
+        <v>156.666</v>
       </c>
       <c r="G28">
-        <f>10</f>
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I28">
+        <v>-83.332999999999998</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I28">
-        <f>0.5*83.333-14</f>
-        <v>27.666499999999999</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <f>2.5*83.333</f>
-        <v>208.33249999999998</v>
-      </c>
-      <c r="O28">
-        <v>-25</v>
-      </c>
-      <c r="Q28">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
       <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M30" t="s">
         <v>8</v>
       </c>
-      <c r="H30" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="I30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(G31:AA31)</f>
-        <v>156.666</v>
+        <v>96.332999999999998</v>
       </c>
       <c r="G31">
-        <f>3*83.333</f>
-        <v>249.999</v>
+        <f>4*83.333</f>
+        <v>333.33199999999999</v>
       </c>
       <c r="I31">
-        <v>-83.332999999999998</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H33" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J33" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q33" t="s">
         <v>15</v>
       </c>
-      <c r="L33" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="M33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="1">
         <f>SUM(G34:AA34)</f>
-        <v>96.332999999999998</v>
+        <v>206.99899999999997</v>
       </c>
       <c r="G34">
-        <f>4*83.333</f>
-        <v>333.33199999999999</v>
+        <v>3</v>
       </c>
       <c r="I34">
+        <f>0.5*83.333-14</f>
+        <v>27.666499999999999</v>
+      </c>
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
       <c r="M34">
-        <f>-3*83.333</f>
-        <v>-249.999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <f>2.5*83.333</f>
+        <v>208.33249999999998</v>
+      </c>
+      <c r="O34">
+        <v>-25</v>
+      </c>
+      <c r="Q34">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
+      <c r="E36" s="2"/>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H36" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J36" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L36" t="str">
-        <f>"+"</f>
-        <v>+</v>
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="M36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N36" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O36" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P36" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="Q36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6"/>
       <c r="C37">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1">
         <f>SUM(G37:AA37)</f>
-        <v>206.99899999999997</v>
+        <v>21.666500000000013</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <f>3.5*83.333</f>
+        <v>291.66550000000001</v>
       </c>
       <c r="I37">
-        <f>0.5*83.333-14</f>
-        <v>27.666499999999999</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <f>2.5*83.333</f>
-        <v>208.33249999999998</v>
+        <v>-3</v>
       </c>
       <c r="O37">
-        <v>-25</v>
+        <v>-37</v>
       </c>
       <c r="Q37">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="2"/>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H39" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J39" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L39" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N39" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6"/>
       <c r="C40">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="1">
         <f>SUM(G40:AA40)</f>
-        <v>21.666500000000013</v>
+        <v>277.66550000000001</v>
       </c>
       <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="K40">
         <f>3.5*83.333</f>
         <v>291.66550000000001</v>
       </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
       <c r="M40">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="O40">
-        <v>-37</v>
-      </c>
-      <c r="Q40">
-        <f>-3*83.333</f>
-        <v>-249.999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="2"/>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J42" t="str">
         <f>"+"</f>
         <v>+</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L42" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="N42" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6"/>
       <c r="C43">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="1">
         <f>SUM(G43:AA43)</f>
-        <v>277.66550000000001</v>
+        <v>125.666</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -1699,130 +1821,1068 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <f>3.5*83.333</f>
-        <v>291.66550000000001</v>
-      </c>
-      <c r="M43">
-        <v>-10</v>
-      </c>
-      <c r="O43">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="I45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" t="str">
-        <f>"+"</f>
-        <v>+</v>
-      </c>
-      <c r="K45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="M45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="O45" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" t="str">
-        <f>"-"</f>
-        <v>-</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1">
-        <f>SUM(G46:AA46)</f>
-        <v>125.666</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="K46">
         <f>3*83.333</f>
         <v>249.999</v>
       </c>
-      <c r="M46">
+      <c r="M43">
         <v>-83.332999999999998</v>
       </c>
-      <c r="O46">
+      <c r="O43">
         <v>-37</v>
       </c>
-      <c r="Q46">
+      <c r="Q43">
         <f>-10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>460</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <f>SUM(G46:I46)</f>
+        <v>489.99799999999999</v>
+      </c>
+      <c r="G46">
+        <f>83.333*6</f>
+        <v>499.99799999999999</v>
+      </c>
+      <c r="I46">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="G52">
+        <v>83.332999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1">
+        <f>SUM(G55:O55)</f>
+        <v>604.99749999999995</v>
+      </c>
+      <c r="G55">
+        <f>6*83.333</f>
+        <v>499.99799999999999</v>
+      </c>
+      <c r="I55">
+        <f>1.5*83.333</f>
+        <v>124.9995</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-10</v>
+      </c>
+      <c r="O55">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="G58">
+        <v>83.332999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <f>SUM(G61:O61)</f>
+        <v>48.666500000000013</v>
+      </c>
+      <c r="G61">
+        <f>1.5*83.333</f>
+        <v>124.9995</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+      <c r="K61">
+        <v>-10</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>-83.332999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M63" t="s">
+        <v>57</v>
+      </c>
+      <c r="N63" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f>2*81.38</f>
+        <v>162.76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
+        <f>SUM(G64:O64)</f>
+        <v>244.99899999999997</v>
+      </c>
+      <c r="G64">
+        <f>4.5*83.333</f>
+        <v>374.99849999999998</v>
+      </c>
+      <c r="I64">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <f>-1.5*83.333</f>
+        <v>-124.9995</v>
+      </c>
+      <c r="O64">
+        <f>-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f>2*81.38</f>
+        <v>162.76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <f>SUM(G67)</f>
+        <v>166.666</v>
+      </c>
+      <c r="G67">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f>2*81.38</f>
+        <v>162.76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <f>SUM(G70)</f>
+        <v>166.666</v>
+      </c>
+      <c r="G70">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I72" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="L72" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
+        <f>SUM(G73:O73)</f>
+        <v>123.666</v>
+      </c>
+      <c r="G73">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+      <c r="I73">
+        <v>17</v>
+      </c>
+      <c r="K73">
+        <v>-33</v>
+      </c>
+      <c r="M73">
+        <v>-10</v>
+      </c>
+      <c r="O73">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K75" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1">
+        <f>SUM(G76:O76)</f>
+        <v>163.66600000000003</v>
+      </c>
+      <c r="G76">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <v>-83.332999999999998</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f>-2*10</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K78" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1">
+        <f>SUM(G79:M79)</f>
+        <v>90.332999999999998</v>
+      </c>
+      <c r="G79">
+        <f>4*83.333</f>
+        <v>333.33199999999999</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K81" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M81" t="s">
+        <v>80</v>
+      </c>
+      <c r="N81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>61</v>
+      </c>
+      <c r="R81" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="S81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1">
+        <f>SUM(G82:S82)</f>
+        <v>26.366</v>
+      </c>
+      <c r="G82">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I82">
+        <v>-83.332999999999998</v>
+      </c>
+      <c r="K82">
+        <v>-37</v>
+      </c>
+      <c r="M82">
+        <v>-20</v>
+      </c>
+      <c r="O82">
+        <v>-6.3</v>
+      </c>
+      <c r="Q82">
+        <v>-17</v>
+      </c>
+      <c r="S82">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I84" t="s">
+        <v>61</v>
+      </c>
+      <c r="J84" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K84" t="s">
+        <v>76</v>
+      </c>
+      <c r="L84" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="M84" t="s">
+        <v>77</v>
+      </c>
+      <c r="N84" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
+        <f>SUM(G85:O85)</f>
+        <v>26.000000000000028</v>
+      </c>
+      <c r="G85">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I85">
+        <v>17</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M87" t="s">
+        <v>80</v>
+      </c>
+      <c r="N87" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P87" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <f>SUM(G88:Q88)</f>
+        <v>82.866</v>
+      </c>
+      <c r="G88">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I88">
+        <v>-83.332999999999998</v>
+      </c>
+      <c r="K88">
+        <v>-37</v>
+      </c>
+      <c r="M88">
+        <v>-20</v>
+      </c>
+      <c r="O88">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="Q88">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I90" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+      <c r="L90" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="M90" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1">
+        <f>SUM(G91:O91)</f>
+        <v>21.000000000000028</v>
+      </c>
+      <c r="G91">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I91">
+        <v>17</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Timing Diagrams/timing.xlsx
+++ b/Timing Diagrams/timing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="15285" windowHeight="7185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="98">
   <si>
     <t>Function</t>
   </si>
@@ -270,6 +270,54 @@
   </si>
   <si>
     <t>t_PZH</t>
+  </si>
+  <si>
+    <t>DRAM Read</t>
+  </si>
+  <si>
+    <t>DRAM</t>
+  </si>
+  <si>
+    <t>Column before CAS</t>
+  </si>
+  <si>
+    <t>Row before RAS</t>
+  </si>
+  <si>
+    <t>Write Pulse</t>
+  </si>
+  <si>
+    <t>Column after CAS</t>
+  </si>
+  <si>
+    <t>Row after RAS</t>
+  </si>
+  <si>
+    <t>t_RAH</t>
+  </si>
+  <si>
+    <t>t_CAH</t>
+  </si>
+  <si>
+    <t>t_ASR</t>
+  </si>
+  <si>
+    <t>t_ASC</t>
+  </si>
+  <si>
+    <t>T_CLAV</t>
+  </si>
+  <si>
+    <t>DRAM Write</t>
+  </si>
+  <si>
+    <t>t_DS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -635,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
@@ -2884,6 +2932,651 @@
         <v>-249.999</v>
       </c>
     </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I93" t="s">
+        <v>63</v>
+      </c>
+      <c r="J93" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K93" t="s">
+        <v>57</v>
+      </c>
+      <c r="L93" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M93" t="s">
+        <v>61</v>
+      </c>
+      <c r="N93" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <f>SUM(G94:O94)</f>
+        <v>0.6664999999999992</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+      <c r="K94">
+        <f>-1.5*83.333</f>
+        <v>-124.9995</v>
+      </c>
+      <c r="M94">
+        <v>-17</v>
+      </c>
+      <c r="O94">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I96" t="s">
+        <v>61</v>
+      </c>
+      <c r="J96" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" ref="E97:E106" si="0">SUM(G97:O97)</f>
+        <v>183.666</v>
+      </c>
+      <c r="G97">
+        <f>4*83.333</f>
+        <v>333.33199999999999</v>
+      </c>
+      <c r="I97">
+        <v>17</v>
+      </c>
+      <c r="K97">
+        <f>-2*83.333</f>
+        <v>-166.666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" ref="E100:E106" si="1">SUM(G100:O100)</f>
+        <v>37.332999999999998</v>
+      </c>
+      <c r="G100">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="I100">
+        <v>-10</v>
+      </c>
+      <c r="K100">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I102" t="s">
+        <v>63</v>
+      </c>
+      <c r="J102" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" ref="E103:E106" si="2">SUM(G103:O103)</f>
+        <v>133.666</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+      <c r="K103">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I105" t="s">
+        <v>61</v>
+      </c>
+      <c r="J105" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" ref="E106" si="3">SUM(G106:O106)</f>
+        <v>149.666</v>
+      </c>
+      <c r="G106">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>96</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>96</v>
+      </c>
+      <c r="K108" t="s">
+        <v>61</v>
+      </c>
+      <c r="L108" t="s">
+        <v>96</v>
+      </c>
+      <c r="M108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <f>SUM(G109:Q109)</f>
+        <v>56.332999999999998</v>
+      </c>
+      <c r="G109">
+        <f>3*83.333</f>
+        <v>249.999</v>
+      </c>
+      <c r="I109">
+        <v>-10</v>
+      </c>
+      <c r="K109">
+        <v>-17</v>
+      </c>
+      <c r="M109">
+        <f>-2*83.333</f>
+        <v>-166.666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>97</v>
+      </c>
+      <c r="I111" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" t="s">
+        <v>97</v>
+      </c>
+      <c r="K111" t="s">
+        <v>38</v>
+      </c>
+      <c r="L111" t="s">
+        <v>96</v>
+      </c>
+      <c r="M111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="1">
+        <f>SUM(G112:Q112)</f>
+        <v>43.666500000000013</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f>3.5*83.333</f>
+        <v>291.66550000000001</v>
+      </c>
+      <c r="M112">
+        <f>-3*83.333</f>
+        <v>-249.999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I114" t="s">
+        <v>61</v>
+      </c>
+      <c r="J114" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="K114" t="s">
+        <v>21</v>
+      </c>
+      <c r="L114" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="M114" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114" t="s">
+        <v>96</v>
+      </c>
+      <c r="O114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <f>SUM(G115:Q115)</f>
+        <v>73.332999999999998</v>
+      </c>
+      <c r="G115">
+        <f>2*83.333</f>
+        <v>166.666</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>-10</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f>-83.333</f>
+        <v>-83.332999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="I117" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" t="str">
+        <f>"+"</f>
+        <v>+</v>
+      </c>
+      <c r="K117" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" t="s">
+        <v>96</v>
+      </c>
+      <c r="M117" t="s">
+        <v>63</v>
+      </c>
+      <c r="N117" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="O117" t="s">
+        <v>61</v>
+      </c>
+      <c r="P117" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1">
+        <f>SUM(G118:Q118)</f>
+        <v>144.666</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <f>4*83.333</f>
+        <v>333.33199999999999</v>
+      </c>
+      <c r="M118">
+        <f>-2*83.333</f>
+        <v>-166.666</v>
+      </c>
+      <c r="O118">
+        <v>-17</v>
+      </c>
+      <c r="Q118">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
